--- a/fhir/ig/urgencia/StructureDefinition-organizacion-establecimiento.xlsx
+++ b/fhir/ig/urgencia/StructureDefinition-organizacion-establecimiento.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AN$37</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AN$59</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1384" uniqueCount="353">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2172" uniqueCount="403">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-08-27T17:49:18-04:00</t>
+    <t>2024-08-29T09:57:29-04:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -120,7 +120,7 @@
     <t>Base Definition</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/StructureDefinition/Organization</t>
+    <t>https://hl7chile.cl/fhir/ig/clcore/StructureDefinition/CoreOrganizacionCl</t>
   </si>
   <si>
     <t>Abstract</t>
@@ -502,10 +502,10 @@
 </t>
   </si>
   <si>
-    <t>Identifies this organization  across multiple systems</t>
-  </si>
-  <si>
-    <t>Identifier for the organization that is used to identify the organization across multiple disparate systems.</t>
+    <t>Identificador de organizacion de salud (DEIS, RUT, Códigos para cietos tipos de Recintos, etc.)</t>
+  </si>
+  <si>
+    <t>Identificador universal de la organización en Chile</t>
   </si>
   <si>
     <t>Organizations are known by a variety of ids. Some institutions maintain several, and most collect identifiers for exchange with other organizations concerning the organization.</t>
@@ -534,21 +534,6 @@
     <t>FiveWs.identifier</t>
   </si>
   <si>
-    <t>Organization.identifier:codigoDEIS</t>
-  </si>
-  <si>
-    <t>codigoDEIS</t>
-  </si>
-  <si>
-    <t>Identificador del establecimiento</t>
-  </si>
-  <si>
-    <t>Identificador del establecimiento en el sistema de salud.</t>
-  </si>
-  <si>
-    <t>Organization.identifier:codigoDEIS.id</t>
-  </si>
-  <si>
     <t>Organization.identifier.id</t>
   </si>
   <si>
@@ -568,9 +553,6 @@
     <t>n/a</t>
   </si>
   <si>
-    <t>Organization.identifier:codigoDEIS.extension</t>
-  </si>
-  <si>
     <t>Organization.identifier.extension</t>
   </si>
   <si>
@@ -586,9 +568,6 @@
     <t>Element.extension</t>
   </si>
   <si>
-    <t>Organization.identifier:codigoDEIS.use</t>
-  </si>
-  <si>
     <t>Organization.identifier.use</t>
   </si>
   <si>
@@ -617,9 +596,6 @@
   </si>
   <si>
     <t>Role.code or implied by context</t>
-  </si>
-  <si>
-    <t>Organization.identifier:codigoDEIS.type</t>
   </si>
   <si>
     <t>Organization.identifier.type</t>
@@ -656,16 +632,13 @@
     <t>CX.5</t>
   </si>
   <si>
-    <t>Organization.identifier:codigoDEIS.system</t>
-  </si>
-  <si>
     <t>Organization.identifier.system</t>
   </si>
   <si>
-    <t>The namespace for the identifier value</t>
-  </si>
-  <si>
-    <t>Establishes the namespace for the value - that is, a URL that describes a set values that are unique.</t>
+    <t>indicador del sistema de indentificación usado pora determinar el valor del identificador</t>
+  </si>
+  <si>
+    <t>Se debe aun definir un ValueSet para estos casos</t>
   </si>
   <si>
     <t>Identifier.system is always case sensitive.</t>
@@ -674,9 +647,6 @@
     <t>There are many sets  of identifiers.  To perform matching of two identifiers, we need to know what set we're dealing with. The system identifies a particular set of unique identifiers.</t>
   </si>
   <si>
-    <t>http://deis.minsal.cl/establecimientos</t>
-  </si>
-  <si>
     <t>http://www.acme.com/identifiers/patient</t>
   </si>
   <si>
@@ -692,13 +662,10 @@
     <t>./IdentifierType</t>
   </si>
   <si>
-    <t>Organization.identifier:codigoDEIS.value</t>
-  </si>
-  <si>
     <t>Organization.identifier.value</t>
   </si>
   <si>
-    <t>Código DEIS del establecimiento de salud</t>
+    <t>The value that is unique</t>
   </si>
   <si>
     <t>The portion of the identifier typically relevant to the user and which is unique within the context of the system.</t>
@@ -720,9 +687,6 @@
   </si>
   <si>
     <t>./Value</t>
-  </si>
-  <si>
-    <t>Organization.identifier:codigoDEIS.period</t>
   </si>
   <si>
     <t>Organization.identifier.period</t>
@@ -750,9 +714,6 @@
     <t>./StartDate and ./EndDate</t>
   </si>
   <si>
-    <t>Organization.identifier:codigoDEIS.assigner</t>
-  </si>
-  <si>
     <t>Organization.identifier.assigner</t>
   </si>
   <si>
@@ -781,6 +742,48 @@
     <t>./IdentifierIssuingAuthority</t>
   </si>
   <si>
+    <t>Organization.identifier:codigoDEIS</t>
+  </si>
+  <si>
+    <t>codigoDEIS</t>
+  </si>
+  <si>
+    <t>Identificador del establecimiento</t>
+  </si>
+  <si>
+    <t>Identificador del establecimiento en el sistema de salud.</t>
+  </si>
+  <si>
+    <t>Organization.identifier:codigoDEIS.id</t>
+  </si>
+  <si>
+    <t>Organization.identifier:codigoDEIS.extension</t>
+  </si>
+  <si>
+    <t>Organization.identifier:codigoDEIS.use</t>
+  </si>
+  <si>
+    <t>Organization.identifier:codigoDEIS.type</t>
+  </si>
+  <si>
+    <t>Organization.identifier:codigoDEIS.system</t>
+  </si>
+  <si>
+    <t>http://deis.minsal.cl/establecimientos</t>
+  </si>
+  <si>
+    <t>Organization.identifier:codigoDEIS.value</t>
+  </si>
+  <si>
+    <t>Código DEIS del establecimiento de salud</t>
+  </si>
+  <si>
+    <t>Organization.identifier:codigoDEIS.period</t>
+  </si>
+  <si>
+    <t>Organization.identifier:codigoDEIS.assigner</t>
+  </si>
+  <si>
     <t>Organization.active</t>
   </si>
   <si>
@@ -788,10 +791,10 @@
 </t>
   </si>
   <si>
-    <t>Whether the organization's record is still in active use</t>
-  </si>
-  <si>
-    <t>Whether the organization's record is still in active use.</t>
+    <t>Estado de si es una Organización Validada o no (true|false)</t>
+  </si>
+  <si>
+    <t>Indicador si una organización sigue vigente en su rol dentro del sistema de salud</t>
   </si>
   <si>
     <t>This active flag is not intended to be used to mark an organization as temporarily closed or under construction. Instead the Location(s) within the Organization should have the suspended status. If further details of the reason for the suspension are required, then an extension on this element should be used.
@@ -854,10 +857,10 @@
     <t>Organization.name</t>
   </si>
   <si>
-    <t>Name used for the organization</t>
-  </si>
-  <si>
-    <t>A name associated with the organization.</t>
+    <t>Nombre Legal de la Organizacion</t>
+  </si>
+  <si>
+    <t>Nombre Legal de la Organización</t>
   </si>
   <si>
     <t>If the name of an organization changes, consider putting the old name in the alias column so that it can still be located through searches.</t>
@@ -878,10 +881,10 @@
     <t>Organization.alias</t>
   </si>
   <si>
-    <t>A list of alternate names that the organization is known as, or was known as in the past</t>
-  </si>
-  <si>
-    <t>A list of alternate names that the organization is known as, or was known as in the past.</t>
+    <t>Nombre de Fantasía</t>
+  </si>
+  <si>
+    <t>Nombre por lo que  popularmente es conocida la Organización y que no corresponde al nombre legal</t>
   </si>
   <si>
     <t>There are no dates associated with the alias/historic names, as this is not intended to track when names were used, but to assist in searching so that older names can still result in identifying the organization.</t>
@@ -898,10 +901,7 @@
 </t>
   </si>
   <si>
-    <t>A contact detail for the organization</t>
-  </si>
-  <si>
-    <t>A contact detail for the organization.</t>
+    <t>Contactos de la organización</t>
   </si>
   <si>
     <t>The use code 'home' is not to be used. Note that these contacts are not the contact details of people who are employed by or represent the organization, but official contacts for the organization itself.</t>
@@ -927,164 +927,316 @@
     <t>./ContactPoints</t>
   </si>
   <si>
+    <t>Organization.telecom.id</t>
+  </si>
+  <si>
+    <t>Organization.telecom.extension</t>
+  </si>
+  <si>
+    <t>Organization.telecom.system</t>
+  </si>
+  <si>
+    <t>phone | fax | email | pager | url | sms | other</t>
+  </si>
+  <si>
+    <t>Forma de telecomunicación para el punto de contacto: qué sistema de comunicación se requiere para hacer uso del contacto.</t>
+  </si>
+  <si>
+    <t>VS HL7 FHIR tipos diferentes de medios de contacto</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/contact-point-system</t>
+  </si>
+  <si>
+    <t>ContactPoint.system</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cpt-2
+</t>
+  </si>
+  <si>
+    <t>XTN.3</t>
+  </si>
+  <si>
+    <t>./scheme</t>
+  </si>
+  <si>
+    <t>./ContactPointType</t>
+  </si>
+  <si>
+    <t>Organization.telecom.value</t>
+  </si>
+  <si>
+    <t>Dato del contato de la ubicación descrita</t>
+  </si>
+  <si>
+    <t>Valor del contacto como por ejemplo el numero de telefono fijo o de móvil o el email de Organiación</t>
+  </si>
+  <si>
+    <t>Additional text data such as phone extension numbers, or notes about use of the contact are sometimes included in the value.</t>
+  </si>
+  <si>
+    <t>Need to support legacy numbers that are not in a tightly controlled format.</t>
+  </si>
+  <si>
+    <t>ContactPoint.value</t>
+  </si>
+  <si>
+    <t>XTN.1 (or XTN.12)</t>
+  </si>
+  <si>
+    <t>./url</t>
+  </si>
+  <si>
+    <t>Organization.telecom.use</t>
+  </si>
+  <si>
+    <t>home | work | temp | old | mobile - purpose of this contact point</t>
+  </si>
+  <si>
+    <t>Identifies the purpose for the contact point.</t>
+  </si>
+  <si>
+    <t>Applications can assume that a contact is current unless it explicitly says that it is temporary or old.</t>
+  </si>
+  <si>
+    <t>Need to track the way a person uses this contact, so a user can choose which is appropriate for their purpose.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/contact-point-use</t>
+  </si>
+  <si>
+    <t>ContactPoint.use</t>
+  </si>
+  <si>
+    <t>XTN.2 - but often indicated by field</t>
+  </si>
+  <si>
+    <t>unique(./use)</t>
+  </si>
+  <si>
+    <t>./ContactPointPurpose</t>
+  </si>
+  <si>
+    <t>Organization.telecom.rank</t>
+  </si>
+  <si>
+    <t xml:space="preserve">positiveInt
+</t>
+  </si>
+  <si>
+    <t>Specify preferred order of use (1 = highest)</t>
+  </si>
+  <si>
+    <t>Specifies a preferred order in which to use a set of contacts. ContactPoints with lower rank values are more preferred than those with higher rank values.</t>
+  </si>
+  <si>
+    <t>Note that rank does not necessarily follow the order in which the contacts are represented in the instance.</t>
+  </si>
+  <si>
+    <t>ContactPoint.rank</t>
+  </si>
+  <si>
+    <t>Organization.telecom.period</t>
+  </si>
+  <si>
+    <t>Time period when the contact point was/is in use</t>
+  </si>
+  <si>
+    <t>Time period when the contact point was/is in use.</t>
+  </si>
+  <si>
+    <t>ContactPoint.period</t>
+  </si>
+  <si>
+    <t>./usablePeriod[type="IVL&lt;TS&gt;"]</t>
+  </si>
+  <si>
     <t>Organization.address</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Address {https://hl7chile.cl/fhir/ig/clcore/StructureDefinition/cl-address}
+</t>
+  </si>
+  <si>
+    <t>Tipo de dato para agragar la dirección de un paciente</t>
+  </si>
+  <si>
+    <t>An address expressed using postal conventions (as opposed to GPS or other location definition formats).  This data type may be used to convey addresses for use in delivering mail as well as for visiting locations which might not be valid for mail delivery.  There are a variety of postal address formats defined around the world.</t>
+  </si>
+  <si>
+    <t>Variable dirección</t>
+  </si>
+  <si>
+    <t>May need to keep track of the organization's addresses for contacting, billing or reporting requirements.</t>
+  </si>
+  <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+org-2:An address of an organization can never be of use 'home' {where(use = 'home').empty()}</t>
+  </si>
+  <si>
+    <t>XAD</t>
+  </si>
+  <si>
+    <t>AD</t>
+  </si>
+  <si>
+    <t>Address</t>
+  </si>
+  <si>
+    <t>Organization.partOf</t>
+  </si>
+  <si>
+    <t>The organization of which this organization forms a part</t>
+  </si>
+  <si>
+    <t>The organization of which this organization forms a part.</t>
+  </si>
+  <si>
+    <t>Need to be able to track the hierarchy of organizations within an organization.</t>
+  </si>
+  <si>
+    <t>.playedBy[classCode=Part].scoper</t>
+  </si>
+  <si>
+    <t>Organization.contact</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BackboneElement
+</t>
+  </si>
+  <si>
+    <t>Contacto de la Organización para ciertos propósitos</t>
+  </si>
+  <si>
+    <t>Where multiple contacts for the same purpose are provided there is a standard extension that can be used to determine which one is the preferred contact to use.</t>
+  </si>
+  <si>
+    <t>Need to keep track of assigned contact points within bigger organization.</t>
+  </si>
+  <si>
+    <t>.contactParty</t>
+  </si>
+  <si>
+    <t>Organization.contact.id</t>
+  </si>
+  <si>
+    <t>Organization.contact.extension</t>
+  </si>
+  <si>
+    <t>Organization.contact.modifierExtension</t>
+  </si>
+  <si>
+    <t>extensions
+user contentmodifiers</t>
+  </si>
+  <si>
+    <t>Extensions that cannot be ignored even if unrecognized</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the element and that modifies the understanding of the element in which it is contained and/or the understanding of the containing element's descendants. Usually modifier elements provide negation or qualification. To make the use of extensions safe and manageable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.
+Modifier extensions SHALL NOT change the meaning of any elements on Resource or DomainResource (including cannot change the meaning of modifierExtension itself).</t>
+  </si>
+  <si>
+    <t>BackboneElement.modifierExtension</t>
+  </si>
+  <si>
+    <t>Organization.contact.purpose</t>
+  </si>
+  <si>
+    <t>El tipo de contacto</t>
+  </si>
+  <si>
+    <t>El propósito mediante el cual el contacto puede ser alcanzado</t>
+  </si>
+  <si>
+    <t>Need to distinguish between multiple contact persons.</t>
+  </si>
+  <si>
+    <t>Códigos del propósito del contacto, HL7 FHIR</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/contactentity-type</t>
+  </si>
+  <si>
+    <t>./type</t>
+  </si>
+  <si>
+    <t>Organization.contact.name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HumanName
+</t>
+  </si>
+  <si>
+    <t>Nombre asociado al contacto</t>
+  </si>
+  <si>
+    <t>Need to be able to track the person by name.</t>
+  </si>
+  <si>
+    <t>PID-5, PID-9</t>
+  </si>
+  <si>
+    <t>./name</t>
+  </si>
+  <si>
+    <t>Organization.contact.telecom</t>
+  </si>
+  <si>
+    <t>Detalles de contacto de la Organización</t>
+  </si>
+  <si>
+    <t>Detalles del contacto de la Organización comunmente el o los mas usados (Ej: Teléfono fijo, móvil, email, etc.)</t>
+  </si>
+  <si>
+    <t>People have (primary) ways to contact them in some way such as phone, email.</t>
+  </si>
+  <si>
+    <t>PID-13, PID-14</t>
+  </si>
+  <si>
+    <t>./telecom</t>
+  </si>
+  <si>
+    <t>Organization.contact.telecom.id</t>
+  </si>
+  <si>
+    <t>Organization.contact.telecom.extension</t>
+  </si>
+  <si>
+    <t>Organization.contact.telecom.system</t>
+  </si>
+  <si>
+    <t>Organization.contact.telecom.value</t>
+  </si>
+  <si>
+    <t>Dato del contato del paciente descrito</t>
+  </si>
+  <si>
+    <t>Valor del contacto como por ejemplo el numero de telefono fijo o de móvil o el email del Paciente</t>
+  </si>
+  <si>
+    <t>Organization.contact.telecom.use</t>
+  </si>
+  <si>
+    <t>home | work | temp | old | mobile</t>
+  </si>
+  <si>
+    <t>Propósito para el contacto que se ha definido</t>
+  </si>
+  <si>
+    <t>Organization.contact.telecom.rank</t>
+  </si>
+  <si>
+    <t>Organization.contact.telecom.period</t>
+  </si>
+  <si>
+    <t>Organization.contact.address</t>
   </si>
   <si>
     <t xml:space="preserve">Address
 </t>
-  </si>
-  <si>
-    <t>An address for the organization</t>
-  </si>
-  <si>
-    <t>An address for the organization.</t>
-  </si>
-  <si>
-    <t>Organization may have multiple addresses with different uses or applicable periods. The use code 'home' is not to be used.</t>
-  </si>
-  <si>
-    <t>May need to keep track of the organization's addresses for contacting, billing or reporting requirements.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">org-2
-</t>
-  </si>
-  <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-org-2:An address of an organization can never be of use 'home' {where(use = 'home').empty()}</t>
-  </si>
-  <si>
-    <t>ORC-23?</t>
-  </si>
-  <si>
-    <t>.address</t>
-  </si>
-  <si>
-    <t>./PrimaryAddress and ./OtherAddresses</t>
-  </si>
-  <si>
-    <t>Organization.partOf</t>
-  </si>
-  <si>
-    <t>The organization of which this organization forms a part</t>
-  </si>
-  <si>
-    <t>The organization of which this organization forms a part.</t>
-  </si>
-  <si>
-    <t>Need to be able to track the hierarchy of organizations within an organization.</t>
-  </si>
-  <si>
-    <t>.playedBy[classCode=Part].scoper</t>
-  </si>
-  <si>
-    <t>Organization.contact</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BackboneElement
-</t>
-  </si>
-  <si>
-    <t>Contact for the organization for a certain purpose</t>
-  </si>
-  <si>
-    <t>Contact for the organization for a certain purpose.</t>
-  </si>
-  <si>
-    <t>Where multiple contacts for the same purpose are provided there is a standard extension that can be used to determine which one is the preferred contact to use.</t>
-  </si>
-  <si>
-    <t>Need to keep track of assigned contact points within bigger organization.</t>
-  </si>
-  <si>
-    <t>.contactParty</t>
-  </si>
-  <si>
-    <t>Organization.contact.id</t>
-  </si>
-  <si>
-    <t>Organization.contact.extension</t>
-  </si>
-  <si>
-    <t>Organization.contact.modifierExtension</t>
-  </si>
-  <si>
-    <t>extensions
-user contentmodifiers</t>
-  </si>
-  <si>
-    <t>Extensions that cannot be ignored even if unrecognized</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the element and that modifies the understanding of the element in which it is contained and/or the understanding of the containing element's descendants. Usually modifier elements provide negation or qualification. To make the use of extensions safe and manageable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.
-Modifier extensions SHALL NOT change the meaning of any elements on Resource or DomainResource (including cannot change the meaning of modifierExtension itself).</t>
-  </si>
-  <si>
-    <t>BackboneElement.modifierExtension</t>
-  </si>
-  <si>
-    <t>Organization.contact.purpose</t>
-  </si>
-  <si>
-    <t>The type of contact</t>
-  </si>
-  <si>
-    <t>Indicates a purpose for which the contact can be reached.</t>
-  </si>
-  <si>
-    <t>Need to distinguish between multiple contact persons.</t>
-  </si>
-  <si>
-    <t>The purpose for which you would contact a contact party.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/contactentity-type</t>
-  </si>
-  <si>
-    <t>./type</t>
-  </si>
-  <si>
-    <t>Organization.contact.name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HumanName
-</t>
-  </si>
-  <si>
-    <t>A name associated with the contact</t>
-  </si>
-  <si>
-    <t>A name associated with the contact.</t>
-  </si>
-  <si>
-    <t>Need to be able to track the person by name.</t>
-  </si>
-  <si>
-    <t>PID-5, PID-9</t>
-  </si>
-  <si>
-    <t>./name</t>
-  </si>
-  <si>
-    <t>Organization.contact.telecom</t>
-  </si>
-  <si>
-    <t>Contact details (telephone, email, etc.)  for a contact</t>
-  </si>
-  <si>
-    <t>A contact detail (e.g. a telephone number or an email address) by which the party may be contacted.</t>
-  </si>
-  <si>
-    <t>People have (primary) ways to contact them in some way such as phone, email.</t>
-  </si>
-  <si>
-    <t>PID-13, PID-14</t>
-  </si>
-  <si>
-    <t>./telecom</t>
-  </si>
-  <si>
-    <t>Organization.contact.address</t>
   </si>
   <si>
     <t>Visiting or postal addresses for the contact</t>
@@ -1451,7 +1603,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AN37"/>
+  <dimension ref="A1:AN59"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1461,7 +1613,7 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="40.98046875" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="36.4609375" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="36.60546875" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="12.64453125" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="38.4609375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="6.1484375" customWidth="true" bestFit="true"/>
@@ -1485,7 +1637,7 @@
     <col min="23" max="23" width="17.40234375" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="16.9609375" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="95.3984375" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="44.71875" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="46.734375" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="5.8828125" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="20.84375" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="40.0859375" customWidth="true" bestFit="true"/>
@@ -1495,7 +1647,7 @@
     <col min="33" max="33" width="9.53125" customWidth="true" bestFit="true" hidden="true"/>
     <col min="34" max="34" width="9.890625" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="37" max="37" width="29.65625" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="32.79296875" customWidth="true" bestFit="true"/>
     <col min="38" max="38" width="99.8984375" customWidth="true" bestFit="true"/>
     <col min="39" max="39" width="210.3203125" customWidth="true" bestFit="true"/>
     <col min="40" max="40" width="33.05078125" customWidth="true" bestFit="true"/>
@@ -2776,7 +2928,7 @@
         <v>80</v>
       </c>
       <c r="H12" t="s" s="2">
-        <v>22</v>
+        <v>89</v>
       </c>
       <c r="I12" t="s" s="2">
         <v>22</v>
@@ -2876,32 +3028,30 @@
         <v>165</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>153</v>
-      </c>
-      <c r="C13" t="s" s="2">
-        <v>166</v>
-      </c>
+        <v>165</v>
+      </c>
+      <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
         <v>22</v>
       </c>
       <c r="E13" s="2"/>
       <c r="F13" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="G13" t="s" s="2">
         <v>88</v>
       </c>
       <c r="H13" t="s" s="2">
-        <v>89</v>
+        <v>22</v>
       </c>
       <c r="I13" t="s" s="2">
         <v>22</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>89</v>
+        <v>22</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>154</v>
+        <v>166</v>
       </c>
       <c r="L13" t="s" s="2">
         <v>167</v>
@@ -2910,9 +3060,7 @@
         <v>168</v>
       </c>
       <c r="N13" s="2"/>
-      <c r="O13" t="s" s="2">
-        <v>157</v>
-      </c>
+      <c r="O13" s="2"/>
       <c r="P13" t="s" s="2">
         <v>22</v>
       </c>
@@ -2960,50 +3108,50 @@
         <v>22</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>153</v>
+        <v>169</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH13" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="AI13" t="s" s="2">
-        <v>160</v>
+        <v>22</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>100</v>
+        <v>22</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>161</v>
+        <v>22</v>
       </c>
       <c r="AL13" t="s" s="2">
-        <v>162</v>
+        <v>170</v>
       </c>
       <c r="AM13" t="s" s="2">
-        <v>163</v>
+        <v>22</v>
       </c>
       <c r="AN13" t="s" s="2">
-        <v>164</v>
+        <v>22</v>
       </c>
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
-        <v>22</v>
+        <v>147</v>
       </c>
       <c r="E14" s="2"/>
       <c r="F14" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G14" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="H14" t="s" s="2">
         <v>22</v>
@@ -3015,7 +3163,7 @@
         <v>22</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>171</v>
+        <v>133</v>
       </c>
       <c r="L14" t="s" s="2">
         <v>172</v>
@@ -3023,7 +3171,9 @@
       <c r="M14" t="s" s="2">
         <v>173</v>
       </c>
-      <c r="N14" s="2"/>
+      <c r="N14" t="s" s="2">
+        <v>150</v>
+      </c>
       <c r="O14" s="2"/>
       <c r="P14" t="s" s="2">
         <v>22</v>
@@ -3060,37 +3210,37 @@
         <v>22</v>
       </c>
       <c r="AB14" t="s" s="2">
-        <v>22</v>
+        <v>136</v>
       </c>
       <c r="AC14" t="s" s="2">
-        <v>22</v>
+        <v>174</v>
       </c>
       <c r="AD14" t="s" s="2">
         <v>22</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>22</v>
+        <v>137</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH14" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="AI14" t="s" s="2">
         <v>22</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>22</v>
+        <v>139</v>
       </c>
       <c r="AK14" t="s" s="2">
         <v>22</v>
       </c>
       <c r="AL14" t="s" s="2">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="AM14" t="s" s="2">
         <v>22</v>
@@ -3104,41 +3254,43 @@
         <v>176</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
-        <v>147</v>
+        <v>22</v>
       </c>
       <c r="E15" s="2"/>
       <c r="F15" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G15" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="H15" t="s" s="2">
         <v>22</v>
       </c>
       <c r="I15" t="s" s="2">
-        <v>22</v>
+        <v>89</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>22</v>
+        <v>89</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>133</v>
+        <v>108</v>
       </c>
       <c r="L15" t="s" s="2">
+        <v>177</v>
+      </c>
+      <c r="M15" t="s" s="2">
         <v>178</v>
       </c>
-      <c r="M15" t="s" s="2">
+      <c r="N15" t="s" s="2">
         <v>179</v>
       </c>
-      <c r="N15" t="s" s="2">
-        <v>150</v>
-      </c>
-      <c r="O15" s="2"/>
+      <c r="O15" t="s" s="2">
+        <v>180</v>
+      </c>
       <c r="P15" t="s" s="2">
         <v>22</v>
       </c>
@@ -3162,49 +3314,49 @@
         <v>22</v>
       </c>
       <c r="X15" t="s" s="2">
-        <v>22</v>
+        <v>181</v>
       </c>
       <c r="Y15" t="s" s="2">
-        <v>22</v>
+        <v>182</v>
       </c>
       <c r="Z15" t="s" s="2">
-        <v>22</v>
+        <v>183</v>
       </c>
       <c r="AA15" t="s" s="2">
         <v>22</v>
       </c>
       <c r="AB15" t="s" s="2">
-        <v>136</v>
+        <v>22</v>
       </c>
       <c r="AC15" t="s" s="2">
-        <v>180</v>
+        <v>22</v>
       </c>
       <c r="AD15" t="s" s="2">
         <v>22</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>137</v>
+        <v>22</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH15" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="AI15" t="s" s="2">
         <v>22</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>139</v>
+        <v>100</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>22</v>
+        <v>131</v>
       </c>
       <c r="AL15" t="s" s="2">
-        <v>175</v>
+        <v>185</v>
       </c>
       <c r="AM15" t="s" s="2">
         <v>22</v>
@@ -3215,10 +3367,10 @@
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
@@ -3235,25 +3387,25 @@
         <v>22</v>
       </c>
       <c r="I16" t="s" s="2">
-        <v>89</v>
+        <v>22</v>
       </c>
       <c r="J16" t="s" s="2">
         <v>89</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>108</v>
+        <v>187</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="N16" t="s" s="2">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="O16" t="s" s="2">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="P16" t="s" s="2">
         <v>22</v>
@@ -3278,13 +3430,13 @@
         <v>22</v>
       </c>
       <c r="X16" t="s" s="2">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="Y16" t="s" s="2">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="Z16" t="s" s="2">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="AA16" t="s" s="2">
         <v>22</v>
@@ -3302,7 +3454,7 @@
         <v>22</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>79</v>
@@ -3317,10 +3469,10 @@
         <v>100</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>131</v>
+        <v>196</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>192</v>
+        <v>185</v>
       </c>
       <c r="AM16" t="s" s="2">
         <v>22</v>
@@ -3331,10 +3483,10 @@
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
@@ -3348,7 +3500,7 @@
         <v>88</v>
       </c>
       <c r="H17" t="s" s="2">
-        <v>22</v>
+        <v>89</v>
       </c>
       <c r="I17" t="s" s="2">
         <v>22</v>
@@ -3357,19 +3509,19 @@
         <v>89</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>195</v>
+        <v>102</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="N17" t="s" s="2">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="O17" t="s" s="2">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="P17" t="s" s="2">
         <v>22</v>
@@ -3382,7 +3534,7 @@
         <v>22</v>
       </c>
       <c r="T17" t="s" s="2">
-        <v>22</v>
+        <v>202</v>
       </c>
       <c r="U17" t="s" s="2">
         <v>22</v>
@@ -3394,13 +3546,13 @@
         <v>22</v>
       </c>
       <c r="X17" t="s" s="2">
-        <v>200</v>
+        <v>22</v>
       </c>
       <c r="Y17" t="s" s="2">
-        <v>201</v>
+        <v>22</v>
       </c>
       <c r="Z17" t="s" s="2">
-        <v>202</v>
+        <v>22</v>
       </c>
       <c r="AA17" t="s" s="2">
         <v>22</v>
@@ -3436,10 +3588,10 @@
         <v>204</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>192</v>
+        <v>205</v>
       </c>
       <c r="AM17" t="s" s="2">
-        <v>22</v>
+        <v>206</v>
       </c>
       <c r="AN17" t="s" s="2">
         <v>22</v>
@@ -3447,10 +3599,10 @@
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
@@ -3458,7 +3610,7 @@
       </c>
       <c r="E18" s="2"/>
       <c r="F18" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="G18" t="s" s="2">
         <v>88</v>
@@ -3473,20 +3625,18 @@
         <v>89</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>102</v>
+        <v>166</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="N18" t="s" s="2">
-        <v>209</v>
-      </c>
-      <c r="O18" t="s" s="2">
         <v>210</v>
       </c>
+      <c r="O18" s="2"/>
       <c r="P18" t="s" s="2">
         <v>22</v>
       </c>
@@ -3495,46 +3645,46 @@
         <v>22</v>
       </c>
       <c r="S18" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="T18" t="s" s="2">
         <v>211</v>
       </c>
-      <c r="T18" t="s" s="2">
+      <c r="U18" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="V18" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="W18" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="X18" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="Y18" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="Z18" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="AA18" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="AB18" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="AC18" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="AD18" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="AE18" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="AF18" t="s" s="2">
         <v>212</v>
-      </c>
-      <c r="U18" t="s" s="2">
-        <v>22</v>
-      </c>
-      <c r="V18" t="s" s="2">
-        <v>22</v>
-      </c>
-      <c r="W18" t="s" s="2">
-        <v>22</v>
-      </c>
-      <c r="X18" t="s" s="2">
-        <v>22</v>
-      </c>
-      <c r="Y18" t="s" s="2">
-        <v>22</v>
-      </c>
-      <c r="Z18" t="s" s="2">
-        <v>22</v>
-      </c>
-      <c r="AA18" t="s" s="2">
-        <v>22</v>
-      </c>
-      <c r="AB18" t="s" s="2">
-        <v>22</v>
-      </c>
-      <c r="AC18" t="s" s="2">
-        <v>22</v>
-      </c>
-      <c r="AD18" t="s" s="2">
-        <v>22</v>
-      </c>
-      <c r="AE18" t="s" s="2">
-        <v>22</v>
-      </c>
-      <c r="AF18" t="s" s="2">
-        <v>213</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>79</v>
@@ -3549,13 +3699,13 @@
         <v>100</v>
       </c>
       <c r="AK18" t="s" s="2">
+        <v>213</v>
+      </c>
+      <c r="AL18" t="s" s="2">
         <v>214</v>
       </c>
-      <c r="AL18" t="s" s="2">
+      <c r="AM18" t="s" s="2">
         <v>215</v>
-      </c>
-      <c r="AM18" t="s" s="2">
-        <v>216</v>
       </c>
       <c r="AN18" t="s" s="2">
         <v>22</v>
@@ -3563,10 +3713,10 @@
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -3574,13 +3724,13 @@
       </c>
       <c r="E19" s="2"/>
       <c r="F19" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="G19" t="s" s="2">
         <v>88</v>
       </c>
       <c r="H19" t="s" s="2">
-        <v>89</v>
+        <v>22</v>
       </c>
       <c r="I19" t="s" s="2">
         <v>22</v>
@@ -3589,17 +3739,15 @@
         <v>89</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>171</v>
+        <v>217</v>
       </c>
       <c r="L19" t="s" s="2">
+        <v>218</v>
+      </c>
+      <c r="M19" t="s" s="2">
         <v>219</v>
       </c>
-      <c r="M19" t="s" s="2">
-        <v>220</v>
-      </c>
-      <c r="N19" t="s" s="2">
-        <v>221</v>
-      </c>
+      <c r="N19" s="2"/>
       <c r="O19" s="2"/>
       <c r="P19" t="s" s="2">
         <v>22</v>
@@ -3612,7 +3760,7 @@
         <v>22</v>
       </c>
       <c r="T19" t="s" s="2">
-        <v>222</v>
+        <v>22</v>
       </c>
       <c r="U19" t="s" s="2">
         <v>22</v>
@@ -3648,7 +3796,7 @@
         <v>22</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>79</v>
@@ -3663,13 +3811,13 @@
         <v>100</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="AN19" t="s" s="2">
         <v>22</v>
@@ -3677,10 +3825,10 @@
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -3703,15 +3851,17 @@
         <v>89</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>231</v>
-      </c>
-      <c r="N20" s="2"/>
+        <v>227</v>
+      </c>
+      <c r="N20" t="s" s="2">
+        <v>228</v>
+      </c>
       <c r="O20" s="2"/>
       <c r="P20" t="s" s="2">
         <v>22</v>
@@ -3760,7 +3910,7 @@
         <v>22</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>79</v>
@@ -3775,13 +3925,13 @@
         <v>100</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="AN20" t="s" s="2">
         <v>22</v>
@@ -3789,24 +3939,26 @@
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>237</v>
-      </c>
-      <c r="C21" s="2"/>
+        <v>153</v>
+      </c>
+      <c r="C21" t="s" s="2">
+        <v>234</v>
+      </c>
       <c r="D21" t="s" s="2">
         <v>22</v>
       </c>
       <c r="E21" s="2"/>
       <c r="F21" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="G21" t="s" s="2">
         <v>88</v>
       </c>
       <c r="H21" t="s" s="2">
-        <v>22</v>
+        <v>89</v>
       </c>
       <c r="I21" t="s" s="2">
         <v>22</v>
@@ -3815,18 +3967,18 @@
         <v>89</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>238</v>
+        <v>154</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>240</v>
-      </c>
-      <c r="N21" t="s" s="2">
-        <v>241</v>
-      </c>
-      <c r="O21" s="2"/>
+        <v>236</v>
+      </c>
+      <c r="N21" s="2"/>
+      <c r="O21" t="s" s="2">
+        <v>157</v>
+      </c>
       <c r="P21" t="s" s="2">
         <v>22</v>
       </c>
@@ -3874,39 +4026,39 @@
         <v>22</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>242</v>
+        <v>153</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH21" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="AI21" t="s" s="2">
-        <v>22</v>
+        <v>160</v>
       </c>
       <c r="AJ21" t="s" s="2">
         <v>100</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>243</v>
+        <v>161</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>244</v>
+        <v>162</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>245</v>
+        <v>163</v>
       </c>
       <c r="AN21" t="s" s="2">
-        <v>22</v>
+        <v>164</v>
       </c>
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>246</v>
+        <v>237</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>246</v>
+        <v>165</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -3923,32 +4075,26 @@
         <v>22</v>
       </c>
       <c r="I22" t="s" s="2">
-        <v>89</v>
+        <v>22</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>89</v>
+        <v>22</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>247</v>
+        <v>166</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>248</v>
+        <v>167</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>249</v>
-      </c>
-      <c r="N22" t="s" s="2">
-        <v>250</v>
-      </c>
-      <c r="O22" t="s" s="2">
-        <v>251</v>
-      </c>
+        <v>168</v>
+      </c>
+      <c r="N22" s="2"/>
+      <c r="O22" s="2"/>
       <c r="P22" t="s" s="2">
         <v>22</v>
       </c>
-      <c r="Q22" t="s" s="2">
-        <v>252</v>
-      </c>
+      <c r="Q22" s="2"/>
       <c r="R22" t="s" s="2">
         <v>22</v>
       </c>
@@ -3992,7 +4138,7 @@
         <v>22</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>246</v>
+        <v>169</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>79</v>
@@ -4004,31 +4150,31 @@
         <v>22</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>100</v>
+        <v>22</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>253</v>
+        <v>22</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>254</v>
+        <v>170</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>255</v>
+        <v>22</v>
       </c>
       <c r="AN22" t="s" s="2">
-        <v>256</v>
+        <v>22</v>
       </c>
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>257</v>
+        <v>238</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>257</v>
+        <v>171</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
-        <v>22</v>
+        <v>147</v>
       </c>
       <c r="E23" s="2"/>
       <c r="F23" t="s" s="2">
@@ -4044,23 +4190,21 @@
         <v>22</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>89</v>
+        <v>22</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>195</v>
+        <v>133</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>258</v>
+        <v>172</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>259</v>
+        <v>173</v>
       </c>
       <c r="N23" t="s" s="2">
-        <v>260</v>
-      </c>
-      <c r="O23" t="s" s="2">
-        <v>261</v>
-      </c>
+        <v>150</v>
+      </c>
+      <c r="O23" s="2"/>
       <c r="P23" t="s" s="2">
         <v>22</v>
       </c>
@@ -4084,31 +4228,31 @@
         <v>22</v>
       </c>
       <c r="X23" t="s" s="2">
-        <v>262</v>
+        <v>22</v>
       </c>
       <c r="Y23" t="s" s="2">
-        <v>263</v>
+        <v>22</v>
       </c>
       <c r="Z23" t="s" s="2">
-        <v>264</v>
+        <v>22</v>
       </c>
       <c r="AA23" t="s" s="2">
         <v>22</v>
       </c>
       <c r="AB23" t="s" s="2">
-        <v>22</v>
+        <v>136</v>
       </c>
       <c r="AC23" t="s" s="2">
-        <v>22</v>
+        <v>174</v>
       </c>
       <c r="AD23" t="s" s="2">
         <v>22</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>22</v>
+        <v>137</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>257</v>
+        <v>175</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>79</v>
@@ -4120,27 +4264,27 @@
         <v>22</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>100</v>
+        <v>139</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>265</v>
+        <v>22</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>266</v>
+        <v>170</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>175</v>
+        <v>22</v>
       </c>
       <c r="AN23" t="s" s="2">
-        <v>267</v>
+        <v>22</v>
       </c>
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>268</v>
+        <v>239</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>268</v>
+        <v>176</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -4157,25 +4301,25 @@
         <v>22</v>
       </c>
       <c r="I24" t="s" s="2">
-        <v>22</v>
+        <v>89</v>
       </c>
       <c r="J24" t="s" s="2">
         <v>89</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>171</v>
+        <v>108</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>269</v>
+        <v>177</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>270</v>
+        <v>178</v>
       </c>
       <c r="N24" t="s" s="2">
-        <v>271</v>
+        <v>179</v>
       </c>
       <c r="O24" t="s" s="2">
-        <v>272</v>
+        <v>180</v>
       </c>
       <c r="P24" t="s" s="2">
         <v>22</v>
@@ -4200,13 +4344,13 @@
         <v>22</v>
       </c>
       <c r="X24" t="s" s="2">
-        <v>22</v>
+        <v>181</v>
       </c>
       <c r="Y24" t="s" s="2">
-        <v>22</v>
+        <v>182</v>
       </c>
       <c r="Z24" t="s" s="2">
-        <v>22</v>
+        <v>183</v>
       </c>
       <c r="AA24" t="s" s="2">
         <v>22</v>
@@ -4224,7 +4368,7 @@
         <v>22</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>268</v>
+        <v>184</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>79</v>
@@ -4233,19 +4377,19 @@
         <v>88</v>
       </c>
       <c r="AI24" t="s" s="2">
-        <v>160</v>
+        <v>22</v>
       </c>
       <c r="AJ24" t="s" s="2">
         <v>100</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>273</v>
+        <v>131</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>274</v>
+        <v>185</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>275</v>
+        <v>22</v>
       </c>
       <c r="AN24" t="s" s="2">
         <v>22</v>
@@ -4253,10 +4397,10 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>276</v>
+        <v>240</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>276</v>
+        <v>186</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -4267,7 +4411,7 @@
         <v>79</v>
       </c>
       <c r="G25" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="H25" t="s" s="2">
         <v>22</v>
@@ -4276,22 +4420,22 @@
         <v>22</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>22</v>
+        <v>89</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>171</v>
+        <v>187</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>277</v>
+        <v>188</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>278</v>
+        <v>189</v>
       </c>
       <c r="N25" t="s" s="2">
-        <v>279</v>
+        <v>190</v>
       </c>
       <c r="O25" t="s" s="2">
-        <v>280</v>
+        <v>191</v>
       </c>
       <c r="P25" t="s" s="2">
         <v>22</v>
@@ -4316,13 +4460,13 @@
         <v>22</v>
       </c>
       <c r="X25" t="s" s="2">
-        <v>22</v>
+        <v>192</v>
       </c>
       <c r="Y25" t="s" s="2">
-        <v>22</v>
+        <v>193</v>
       </c>
       <c r="Z25" t="s" s="2">
-        <v>22</v>
+        <v>194</v>
       </c>
       <c r="AA25" t="s" s="2">
         <v>22</v>
@@ -4340,13 +4484,13 @@
         <v>22</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>276</v>
+        <v>195</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH25" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="AI25" t="s" s="2">
         <v>22</v>
@@ -4355,10 +4499,10 @@
         <v>100</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>22</v>
+        <v>196</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>274</v>
+        <v>185</v>
       </c>
       <c r="AM25" t="s" s="2">
         <v>22</v>
@@ -4369,10 +4513,10 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>281</v>
+        <v>241</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>281</v>
+        <v>197</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -4380,34 +4524,34 @@
       </c>
       <c r="E26" s="2"/>
       <c r="F26" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="H26" t="s" s="2">
-        <v>22</v>
+        <v>89</v>
       </c>
       <c r="I26" t="s" s="2">
         <v>22</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>22</v>
+        <v>89</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>282</v>
+        <v>102</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>283</v>
+        <v>198</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>284</v>
+        <v>199</v>
       </c>
       <c r="N26" t="s" s="2">
-        <v>285</v>
+        <v>200</v>
       </c>
       <c r="O26" t="s" s="2">
-        <v>286</v>
+        <v>201</v>
       </c>
       <c r="P26" t="s" s="2">
         <v>22</v>
@@ -4417,10 +4561,10 @@
         <v>22</v>
       </c>
       <c r="S26" t="s" s="2">
-        <v>22</v>
+        <v>242</v>
       </c>
       <c r="T26" t="s" s="2">
-        <v>22</v>
+        <v>202</v>
       </c>
       <c r="U26" t="s" s="2">
         <v>22</v>
@@ -4456,28 +4600,28 @@
         <v>22</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>281</v>
+        <v>203</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH26" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="AI26" t="s" s="2">
-        <v>287</v>
+        <v>22</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>288</v>
+        <v>100</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>289</v>
+        <v>204</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>290</v>
+        <v>205</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>291</v>
+        <v>206</v>
       </c>
       <c r="AN26" t="s" s="2">
         <v>22</v>
@@ -4485,10 +4629,10 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>292</v>
+        <v>243</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>292</v>
+        <v>207</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -4496,35 +4640,33 @@
       </c>
       <c r="E27" s="2"/>
       <c r="F27" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="G27" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="H27" t="s" s="2">
-        <v>22</v>
+        <v>89</v>
       </c>
       <c r="I27" t="s" s="2">
         <v>22</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>22</v>
+        <v>89</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>293</v>
+        <v>166</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>294</v>
+        <v>244</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>295</v>
+        <v>209</v>
       </c>
       <c r="N27" t="s" s="2">
-        <v>296</v>
-      </c>
-      <c r="O27" t="s" s="2">
-        <v>297</v>
-      </c>
+        <v>210</v>
+      </c>
+      <c r="O27" s="2"/>
       <c r="P27" t="s" s="2">
         <v>22</v>
       </c>
@@ -4536,7 +4678,7 @@
         <v>22</v>
       </c>
       <c r="T27" t="s" s="2">
-        <v>22</v>
+        <v>211</v>
       </c>
       <c r="U27" t="s" s="2">
         <v>22</v>
@@ -4572,28 +4714,28 @@
         <v>22</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>292</v>
+        <v>212</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH27" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="AI27" t="s" s="2">
-        <v>298</v>
+        <v>22</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>299</v>
+        <v>100</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>300</v>
+        <v>213</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>301</v>
+        <v>214</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>302</v>
+        <v>215</v>
       </c>
       <c r="AN27" t="s" s="2">
         <v>22</v>
@@ -4601,10 +4743,10 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>303</v>
+        <v>245</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>303</v>
+        <v>216</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -4627,18 +4769,16 @@
         <v>89</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>238</v>
+        <v>217</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>304</v>
+        <v>218</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>305</v>
+        <v>219</v>
       </c>
       <c r="N28" s="2"/>
-      <c r="O28" t="s" s="2">
-        <v>306</v>
-      </c>
+      <c r="O28" s="2"/>
       <c r="P28" t="s" s="2">
         <v>22</v>
       </c>
@@ -4686,7 +4826,7 @@
         <v>22</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>303</v>
+        <v>220</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>79</v>
@@ -4701,13 +4841,13 @@
         <v>100</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>253</v>
+        <v>221</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>307</v>
+        <v>222</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>175</v>
+        <v>223</v>
       </c>
       <c r="AN28" t="s" s="2">
         <v>22</v>
@@ -4715,10 +4855,10 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>308</v>
+        <v>246</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>308</v>
+        <v>224</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -4729,7 +4869,7 @@
         <v>79</v>
       </c>
       <c r="G29" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="H29" t="s" s="2">
         <v>22</v>
@@ -4738,23 +4878,21 @@
         <v>22</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>22</v>
+        <v>89</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>309</v>
+        <v>225</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>310</v>
+        <v>226</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>311</v>
+        <v>227</v>
       </c>
       <c r="N29" t="s" s="2">
-        <v>312</v>
-      </c>
-      <c r="O29" t="s" s="2">
-        <v>313</v>
-      </c>
+        <v>228</v>
+      </c>
+      <c r="O29" s="2"/>
       <c r="P29" t="s" s="2">
         <v>22</v>
       </c>
@@ -4802,13 +4940,13 @@
         <v>22</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>308</v>
+        <v>229</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH29" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="AI29" t="s" s="2">
         <v>22</v>
@@ -4817,13 +4955,13 @@
         <v>100</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>22</v>
+        <v>230</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>314</v>
+        <v>231</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>22</v>
+        <v>232</v>
       </c>
       <c r="AN29" t="s" s="2">
         <v>22</v>
@@ -4831,10 +4969,10 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>315</v>
+        <v>247</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>315</v>
+        <v>247</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -4851,26 +4989,32 @@
         <v>22</v>
       </c>
       <c r="I30" t="s" s="2">
-        <v>22</v>
+        <v>89</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>22</v>
+        <v>89</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>171</v>
+        <v>248</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>172</v>
+        <v>249</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>173</v>
-      </c>
-      <c r="N30" s="2"/>
-      <c r="O30" s="2"/>
+        <v>250</v>
+      </c>
+      <c r="N30" t="s" s="2">
+        <v>251</v>
+      </c>
+      <c r="O30" t="s" s="2">
+        <v>252</v>
+      </c>
       <c r="P30" t="s" s="2">
         <v>22</v>
       </c>
-      <c r="Q30" s="2"/>
+      <c r="Q30" t="s" s="2">
+        <v>253</v>
+      </c>
       <c r="R30" t="s" s="2">
         <v>22</v>
       </c>
@@ -4914,7 +5058,7 @@
         <v>22</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>174</v>
+        <v>247</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>79</v>
@@ -4926,31 +5070,31 @@
         <v>22</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>22</v>
+        <v>100</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>22</v>
+        <v>254</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>175</v>
+        <v>255</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>22</v>
+        <v>256</v>
       </c>
       <c r="AN30" t="s" s="2">
-        <v>22</v>
+        <v>257</v>
       </c>
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>316</v>
+        <v>258</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>316</v>
+        <v>258</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
-        <v>147</v>
+        <v>22</v>
       </c>
       <c r="E31" s="2"/>
       <c r="F31" t="s" s="2">
@@ -4966,21 +5110,23 @@
         <v>22</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>22</v>
+        <v>89</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>133</v>
+        <v>187</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>178</v>
+        <v>259</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>179</v>
+        <v>260</v>
       </c>
       <c r="N31" t="s" s="2">
-        <v>150</v>
-      </c>
-      <c r="O31" s="2"/>
+        <v>261</v>
+      </c>
+      <c r="O31" t="s" s="2">
+        <v>262</v>
+      </c>
       <c r="P31" t="s" s="2">
         <v>22</v>
       </c>
@@ -5004,13 +5150,13 @@
         <v>22</v>
       </c>
       <c r="X31" t="s" s="2">
-        <v>22</v>
+        <v>263</v>
       </c>
       <c r="Y31" t="s" s="2">
-        <v>22</v>
+        <v>264</v>
       </c>
       <c r="Z31" t="s" s="2">
-        <v>22</v>
+        <v>265</v>
       </c>
       <c r="AA31" t="s" s="2">
         <v>22</v>
@@ -5028,7 +5174,7 @@
         <v>22</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>181</v>
+        <v>258</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>79</v>
@@ -5040,62 +5186,62 @@
         <v>22</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>139</v>
+        <v>100</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>22</v>
+        <v>266</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>175</v>
+        <v>267</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>22</v>
+        <v>170</v>
       </c>
       <c r="AN31" t="s" s="2">
-        <v>22</v>
+        <v>268</v>
       </c>
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>317</v>
+        <v>269</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>317</v>
+        <v>269</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
-        <v>318</v>
+        <v>22</v>
       </c>
       <c r="E32" s="2"/>
       <c r="F32" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G32" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="H32" t="s" s="2">
-        <v>22</v>
+        <v>89</v>
       </c>
       <c r="I32" t="s" s="2">
-        <v>89</v>
+        <v>22</v>
       </c>
       <c r="J32" t="s" s="2">
         <v>89</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>133</v>
+        <v>166</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>319</v>
+        <v>270</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>320</v>
+        <v>271</v>
       </c>
       <c r="N32" t="s" s="2">
-        <v>150</v>
+        <v>272</v>
       </c>
       <c r="O32" t="s" s="2">
-        <v>151</v>
+        <v>273</v>
       </c>
       <c r="P32" t="s" s="2">
         <v>22</v>
@@ -5144,28 +5290,28 @@
         <v>22</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>321</v>
+        <v>269</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH32" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="AI32" t="s" s="2">
-        <v>22</v>
+        <v>160</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>139</v>
+        <v>100</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>22</v>
+        <v>274</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>131</v>
+        <v>275</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>22</v>
+        <v>276</v>
       </c>
       <c r="AN32" t="s" s="2">
         <v>22</v>
@@ -5173,10 +5319,10 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>322</v>
+        <v>277</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>322</v>
+        <v>277</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -5187,10 +5333,10 @@
         <v>79</v>
       </c>
       <c r="G33" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="H33" t="s" s="2">
-        <v>22</v>
+        <v>89</v>
       </c>
       <c r="I33" t="s" s="2">
         <v>22</v>
@@ -5199,17 +5345,19 @@
         <v>22</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>195</v>
+        <v>166</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>323</v>
+        <v>278</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>324</v>
-      </c>
-      <c r="N33" s="2"/>
+        <v>279</v>
+      </c>
+      <c r="N33" t="s" s="2">
+        <v>280</v>
+      </c>
       <c r="O33" t="s" s="2">
-        <v>325</v>
+        <v>281</v>
       </c>
       <c r="P33" t="s" s="2">
         <v>22</v>
@@ -5234,13 +5382,13 @@
         <v>22</v>
       </c>
       <c r="X33" t="s" s="2">
-        <v>200</v>
+        <v>22</v>
       </c>
       <c r="Y33" t="s" s="2">
-        <v>326</v>
+        <v>22</v>
       </c>
       <c r="Z33" t="s" s="2">
-        <v>327</v>
+        <v>22</v>
       </c>
       <c r="AA33" t="s" s="2">
         <v>22</v>
@@ -5258,13 +5406,13 @@
         <v>22</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>322</v>
+        <v>277</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH33" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="AI33" t="s" s="2">
         <v>22</v>
@@ -5276,7 +5424,7 @@
         <v>22</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>328</v>
+        <v>275</v>
       </c>
       <c r="AM33" t="s" s="2">
         <v>22</v>
@@ -5287,10 +5435,10 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>329</v>
+        <v>282</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>329</v>
+        <v>282</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -5301,10 +5449,10 @@
         <v>79</v>
       </c>
       <c r="G34" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="H34" t="s" s="2">
-        <v>22</v>
+        <v>89</v>
       </c>
       <c r="I34" t="s" s="2">
         <v>22</v>
@@ -5313,17 +5461,19 @@
         <v>22</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>330</v>
+        <v>283</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>331</v>
+        <v>284</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>332</v>
-      </c>
-      <c r="N34" s="2"/>
+        <v>284</v>
+      </c>
+      <c r="N34" t="s" s="2">
+        <v>285</v>
+      </c>
       <c r="O34" t="s" s="2">
-        <v>333</v>
+        <v>286</v>
       </c>
       <c r="P34" t="s" s="2">
         <v>22</v>
@@ -5372,28 +5522,28 @@
         <v>22</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>329</v>
+        <v>282</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH34" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="AI34" t="s" s="2">
-        <v>22</v>
+        <v>287</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>100</v>
+        <v>288</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>334</v>
+        <v>289</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>335</v>
+        <v>290</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>22</v>
+        <v>291</v>
       </c>
       <c r="AN34" t="s" s="2">
         <v>22</v>
@@ -5401,10 +5551,10 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>336</v>
+        <v>292</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>336</v>
+        <v>292</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -5415,7 +5565,7 @@
         <v>79</v>
       </c>
       <c r="G35" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="H35" t="s" s="2">
         <v>22</v>
@@ -5427,18 +5577,16 @@
         <v>22</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>282</v>
+        <v>166</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>337</v>
+        <v>167</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>338</v>
+        <v>168</v>
       </c>
       <c r="N35" s="2"/>
-      <c r="O35" t="s" s="2">
-        <v>339</v>
-      </c>
+      <c r="O35" s="2"/>
       <c r="P35" t="s" s="2">
         <v>22</v>
       </c>
@@ -5486,25 +5634,25 @@
         <v>22</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>336</v>
+        <v>169</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH35" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="AI35" t="s" s="2">
         <v>22</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>100</v>
+        <v>22</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>340</v>
+        <v>22</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>341</v>
+        <v>170</v>
       </c>
       <c r="AM35" t="s" s="2">
         <v>22</v>
@@ -5515,21 +5663,21 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>342</v>
+        <v>293</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>342</v>
+        <v>293</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
-        <v>22</v>
+        <v>147</v>
       </c>
       <c r="E36" s="2"/>
       <c r="F36" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G36" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="H36" t="s" s="2">
         <v>22</v>
@@ -5541,18 +5689,18 @@
         <v>22</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>293</v>
+        <v>133</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>343</v>
+        <v>172</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>344</v>
-      </c>
-      <c r="N36" s="2"/>
-      <c r="O36" t="s" s="2">
-        <v>345</v>
-      </c>
+        <v>173</v>
+      </c>
+      <c r="N36" t="s" s="2">
+        <v>150</v>
+      </c>
+      <c r="O36" s="2"/>
       <c r="P36" t="s" s="2">
         <v>22</v>
       </c>
@@ -5588,37 +5736,37 @@
         <v>22</v>
       </c>
       <c r="AB36" t="s" s="2">
-        <v>22</v>
+        <v>136</v>
       </c>
       <c r="AC36" t="s" s="2">
-        <v>22</v>
+        <v>174</v>
       </c>
       <c r="AD36" t="s" s="2">
         <v>22</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>22</v>
+        <v>137</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>342</v>
+        <v>175</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH36" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="AI36" t="s" s="2">
         <v>22</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>100</v>
+        <v>139</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>346</v>
+        <v>22</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>347</v>
+        <v>170</v>
       </c>
       <c r="AM36" t="s" s="2">
         <v>22</v>
@@ -5629,10 +5777,10 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>348</v>
+        <v>294</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>348</v>
+        <v>294</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -5643,7 +5791,7 @@
         <v>79</v>
       </c>
       <c r="G37" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="H37" t="s" s="2">
         <v>22</v>
@@ -5652,21 +5800,19 @@
         <v>22</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>22</v>
+        <v>89</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>349</v>
+        <v>108</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>350</v>
+        <v>295</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>351</v>
+        <v>296</v>
       </c>
       <c r="N37" s="2"/>
-      <c r="O37" t="s" s="2">
-        <v>352</v>
-      </c>
+      <c r="O37" s="2"/>
       <c r="P37" t="s" s="2">
         <v>22</v>
       </c>
@@ -5690,13 +5836,13 @@
         <v>22</v>
       </c>
       <c r="X37" t="s" s="2">
-        <v>22</v>
+        <v>181</v>
       </c>
       <c r="Y37" t="s" s="2">
-        <v>22</v>
+        <v>297</v>
       </c>
       <c r="Z37" t="s" s="2">
-        <v>22</v>
+        <v>298</v>
       </c>
       <c r="AA37" t="s" s="2">
         <v>22</v>
@@ -5714,35 +5860,2541 @@
         <v>22</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>348</v>
+        <v>299</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH37" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="AI37" t="s" s="2">
-        <v>22</v>
+        <v>300</v>
       </c>
       <c r="AJ37" t="s" s="2">
         <v>100</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>22</v>
+        <v>301</v>
       </c>
       <c r="AL37" t="s" s="2">
+        <v>302</v>
+      </c>
+      <c r="AM37" t="s" s="2">
+        <v>303</v>
+      </c>
+      <c r="AN37" t="s" s="2">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="38" hidden="true">
+      <c r="A38" t="s" s="2">
+        <v>304</v>
+      </c>
+      <c r="B38" t="s" s="2">
+        <v>304</v>
+      </c>
+      <c r="C38" s="2"/>
+      <c r="D38" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="E38" s="2"/>
+      <c r="F38" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G38" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="H38" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="I38" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="J38" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="K38" t="s" s="2">
+        <v>166</v>
+      </c>
+      <c r="L38" t="s" s="2">
+        <v>305</v>
+      </c>
+      <c r="M38" t="s" s="2">
+        <v>306</v>
+      </c>
+      <c r="N38" t="s" s="2">
+        <v>307</v>
+      </c>
+      <c r="O38" t="s" s="2">
+        <v>308</v>
+      </c>
+      <c r="P38" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="Q38" s="2"/>
+      <c r="R38" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="S38" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="T38" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="U38" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="V38" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="W38" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="X38" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="Y38" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="Z38" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="AA38" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="AB38" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="AC38" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="AD38" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="AE38" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="AF38" t="s" s="2">
+        <v>309</v>
+      </c>
+      <c r="AG38" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH38" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AI38" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="AJ38" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AK38" t="s" s="2">
+        <v>310</v>
+      </c>
+      <c r="AL38" t="s" s="2">
+        <v>311</v>
+      </c>
+      <c r="AM38" t="s" s="2">
+        <v>215</v>
+      </c>
+      <c r="AN38" t="s" s="2">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="39" hidden="true">
+      <c r="A39" t="s" s="2">
+        <v>312</v>
+      </c>
+      <c r="B39" t="s" s="2">
+        <v>312</v>
+      </c>
+      <c r="C39" s="2"/>
+      <c r="D39" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="E39" s="2"/>
+      <c r="F39" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G39" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="H39" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="I39" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="J39" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="K39" t="s" s="2">
+        <v>108</v>
+      </c>
+      <c r="L39" t="s" s="2">
+        <v>313</v>
+      </c>
+      <c r="M39" t="s" s="2">
+        <v>314</v>
+      </c>
+      <c r="N39" t="s" s="2">
+        <v>315</v>
+      </c>
+      <c r="O39" t="s" s="2">
+        <v>316</v>
+      </c>
+      <c r="P39" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="Q39" s="2"/>
+      <c r="R39" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="S39" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="T39" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="U39" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="V39" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="W39" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="X39" t="s" s="2">
+        <v>181</v>
+      </c>
+      <c r="Y39" s="2"/>
+      <c r="Z39" t="s" s="2">
+        <v>317</v>
+      </c>
+      <c r="AA39" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="AB39" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="AC39" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="AD39" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="AE39" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="AF39" t="s" s="2">
+        <v>318</v>
+      </c>
+      <c r="AG39" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH39" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AI39" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="AJ39" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AK39" t="s" s="2">
+        <v>319</v>
+      </c>
+      <c r="AL39" t="s" s="2">
+        <v>320</v>
+      </c>
+      <c r="AM39" t="s" s="2">
+        <v>321</v>
+      </c>
+      <c r="AN39" t="s" s="2">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="40" hidden="true">
+      <c r="A40" t="s" s="2">
+        <v>322</v>
+      </c>
+      <c r="B40" t="s" s="2">
+        <v>322</v>
+      </c>
+      <c r="C40" s="2"/>
+      <c r="D40" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="E40" s="2"/>
+      <c r="F40" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G40" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="H40" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="I40" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="J40" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="K40" t="s" s="2">
+        <v>323</v>
+      </c>
+      <c r="L40" t="s" s="2">
+        <v>324</v>
+      </c>
+      <c r="M40" t="s" s="2">
+        <v>325</v>
+      </c>
+      <c r="N40" t="s" s="2">
+        <v>326</v>
+      </c>
+      <c r="O40" s="2"/>
+      <c r="P40" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="Q40" s="2"/>
+      <c r="R40" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="S40" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="T40" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="U40" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="V40" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="W40" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="X40" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="Y40" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="Z40" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="AA40" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="AB40" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="AC40" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="AD40" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="AE40" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="AF40" t="s" s="2">
+        <v>327</v>
+      </c>
+      <c r="AG40" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH40" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AI40" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="AJ40" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AK40" t="s" s="2">
+        <v>170</v>
+      </c>
+      <c r="AL40" t="s" s="2">
+        <v>170</v>
+      </c>
+      <c r="AM40" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="AN40" t="s" s="2">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="41" hidden="true">
+      <c r="A41" t="s" s="2">
+        <v>328</v>
+      </c>
+      <c r="B41" t="s" s="2">
+        <v>328</v>
+      </c>
+      <c r="C41" s="2"/>
+      <c r="D41" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="E41" s="2"/>
+      <c r="F41" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G41" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="H41" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="I41" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="J41" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="K41" t="s" s="2">
+        <v>217</v>
+      </c>
+      <c r="L41" t="s" s="2">
+        <v>329</v>
+      </c>
+      <c r="M41" t="s" s="2">
+        <v>330</v>
+      </c>
+      <c r="N41" s="2"/>
+      <c r="O41" s="2"/>
+      <c r="P41" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="Q41" s="2"/>
+      <c r="R41" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="S41" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="T41" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="U41" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="V41" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="W41" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="X41" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="Y41" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="Z41" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="AA41" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="AB41" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="AC41" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="AD41" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="AE41" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="AF41" t="s" s="2">
+        <v>331</v>
+      </c>
+      <c r="AG41" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH41" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AI41" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="AJ41" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AK41" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="AL41" t="s" s="2">
+        <v>332</v>
+      </c>
+      <c r="AM41" t="s" s="2">
+        <v>223</v>
+      </c>
+      <c r="AN41" t="s" s="2">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="42" hidden="true">
+      <c r="A42" t="s" s="2">
+        <v>333</v>
+      </c>
+      <c r="B42" t="s" s="2">
+        <v>333</v>
+      </c>
+      <c r="C42" s="2"/>
+      <c r="D42" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="E42" s="2"/>
+      <c r="F42" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G42" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="H42" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="I42" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="J42" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="K42" t="s" s="2">
+        <v>334</v>
+      </c>
+      <c r="L42" t="s" s="2">
+        <v>335</v>
+      </c>
+      <c r="M42" t="s" s="2">
+        <v>336</v>
+      </c>
+      <c r="N42" t="s" s="2">
+        <v>337</v>
+      </c>
+      <c r="O42" t="s" s="2">
+        <v>338</v>
+      </c>
+      <c r="P42" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="Q42" s="2"/>
+      <c r="R42" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="S42" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="T42" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="U42" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="V42" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="W42" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="X42" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="Y42" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="Z42" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="AA42" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="AB42" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="AC42" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="AD42" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="AE42" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="AF42" t="s" s="2">
+        <v>333</v>
+      </c>
+      <c r="AG42" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH42" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AI42" t="s" s="2">
+        <v>145</v>
+      </c>
+      <c r="AJ42" t="s" s="2">
+        <v>339</v>
+      </c>
+      <c r="AK42" t="s" s="2">
+        <v>340</v>
+      </c>
+      <c r="AL42" t="s" s="2">
+        <v>341</v>
+      </c>
+      <c r="AM42" t="s" s="2">
+        <v>342</v>
+      </c>
+      <c r="AN42" t="s" s="2">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="43" hidden="true">
+      <c r="A43" t="s" s="2">
+        <v>343</v>
+      </c>
+      <c r="B43" t="s" s="2">
+        <v>343</v>
+      </c>
+      <c r="C43" s="2"/>
+      <c r="D43" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="E43" s="2"/>
+      <c r="F43" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G43" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="H43" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="I43" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="J43" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="K43" t="s" s="2">
+        <v>225</v>
+      </c>
+      <c r="L43" t="s" s="2">
+        <v>344</v>
+      </c>
+      <c r="M43" t="s" s="2">
+        <v>345</v>
+      </c>
+      <c r="N43" s="2"/>
+      <c r="O43" t="s" s="2">
+        <v>346</v>
+      </c>
+      <c r="P43" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="Q43" s="2"/>
+      <c r="R43" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="S43" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="T43" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="U43" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="V43" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="W43" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="X43" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="Y43" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="Z43" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="AA43" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="AB43" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="AC43" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="AD43" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="AE43" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="AF43" t="s" s="2">
+        <v>343</v>
+      </c>
+      <c r="AG43" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH43" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AI43" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="AJ43" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AK43" t="s" s="2">
+        <v>254</v>
+      </c>
+      <c r="AL43" t="s" s="2">
+        <v>347</v>
+      </c>
+      <c r="AM43" t="s" s="2">
+        <v>170</v>
+      </c>
+      <c r="AN43" t="s" s="2">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="44" hidden="true">
+      <c r="A44" t="s" s="2">
+        <v>348</v>
+      </c>
+      <c r="B44" t="s" s="2">
+        <v>348</v>
+      </c>
+      <c r="C44" s="2"/>
+      <c r="D44" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="E44" s="2"/>
+      <c r="F44" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G44" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="H44" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="I44" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="J44" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="K44" t="s" s="2">
+        <v>349</v>
+      </c>
+      <c r="L44" t="s" s="2">
+        <v>350</v>
+      </c>
+      <c r="M44" t="s" s="2">
+        <v>350</v>
+      </c>
+      <c r="N44" t="s" s="2">
+        <v>351</v>
+      </c>
+      <c r="O44" t="s" s="2">
+        <v>352</v>
+      </c>
+      <c r="P44" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="Q44" s="2"/>
+      <c r="R44" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="S44" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="T44" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="U44" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="V44" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="W44" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="X44" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="Y44" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="Z44" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="AA44" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="AB44" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="AC44" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="AD44" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="AE44" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="AF44" t="s" s="2">
+        <v>348</v>
+      </c>
+      <c r="AG44" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH44" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AI44" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="AJ44" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AK44" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="AL44" t="s" s="2">
+        <v>353</v>
+      </c>
+      <c r="AM44" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="AN44" t="s" s="2">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="45" hidden="true">
+      <c r="A45" t="s" s="2">
+        <v>354</v>
+      </c>
+      <c r="B45" t="s" s="2">
+        <v>354</v>
+      </c>
+      <c r="C45" s="2"/>
+      <c r="D45" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="E45" s="2"/>
+      <c r="F45" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G45" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="H45" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="I45" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="J45" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="K45" t="s" s="2">
+        <v>166</v>
+      </c>
+      <c r="L45" t="s" s="2">
+        <v>167</v>
+      </c>
+      <c r="M45" t="s" s="2">
+        <v>168</v>
+      </c>
+      <c r="N45" s="2"/>
+      <c r="O45" s="2"/>
+      <c r="P45" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="Q45" s="2"/>
+      <c r="R45" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="S45" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="T45" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="U45" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="V45" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="W45" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="X45" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="Y45" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="Z45" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="AA45" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="AB45" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="AC45" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="AD45" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="AE45" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="AF45" t="s" s="2">
+        <v>169</v>
+      </c>
+      <c r="AG45" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH45" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AI45" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="AJ45" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="AK45" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="AL45" t="s" s="2">
+        <v>170</v>
+      </c>
+      <c r="AM45" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="AN45" t="s" s="2">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="46" hidden="true">
+      <c r="A46" t="s" s="2">
+        <v>355</v>
+      </c>
+      <c r="B46" t="s" s="2">
+        <v>355</v>
+      </c>
+      <c r="C46" s="2"/>
+      <c r="D46" t="s" s="2">
+        <v>147</v>
+      </c>
+      <c r="E46" s="2"/>
+      <c r="F46" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G46" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="H46" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="I46" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="J46" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="K46" t="s" s="2">
+        <v>133</v>
+      </c>
+      <c r="L46" t="s" s="2">
+        <v>172</v>
+      </c>
+      <c r="M46" t="s" s="2">
+        <v>173</v>
+      </c>
+      <c r="N46" t="s" s="2">
+        <v>150</v>
+      </c>
+      <c r="O46" s="2"/>
+      <c r="P46" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="Q46" s="2"/>
+      <c r="R46" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="S46" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="T46" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="U46" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="V46" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="W46" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="X46" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="Y46" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="Z46" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="AA46" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="AB46" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="AC46" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="AD46" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="AE46" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="AF46" t="s" s="2">
         <v>175</v>
       </c>
-      <c r="AM37" t="s" s="2">
-        <v>22</v>
-      </c>
-      <c r="AN37" t="s" s="2">
+      <c r="AG46" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH46" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AI46" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="AJ46" t="s" s="2">
+        <v>139</v>
+      </c>
+      <c r="AK46" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="AL46" t="s" s="2">
+        <v>170</v>
+      </c>
+      <c r="AM46" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="AN46" t="s" s="2">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="47" hidden="true">
+      <c r="A47" t="s" s="2">
+        <v>356</v>
+      </c>
+      <c r="B47" t="s" s="2">
+        <v>356</v>
+      </c>
+      <c r="C47" s="2"/>
+      <c r="D47" t="s" s="2">
+        <v>357</v>
+      </c>
+      <c r="E47" s="2"/>
+      <c r="F47" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G47" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="H47" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="I47" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="J47" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="K47" t="s" s="2">
+        <v>133</v>
+      </c>
+      <c r="L47" t="s" s="2">
+        <v>358</v>
+      </c>
+      <c r="M47" t="s" s="2">
+        <v>359</v>
+      </c>
+      <c r="N47" t="s" s="2">
+        <v>150</v>
+      </c>
+      <c r="O47" t="s" s="2">
+        <v>151</v>
+      </c>
+      <c r="P47" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="Q47" s="2"/>
+      <c r="R47" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="S47" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="T47" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="U47" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="V47" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="W47" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="X47" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="Y47" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="Z47" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="AA47" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="AB47" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="AC47" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="AD47" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="AE47" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="AF47" t="s" s="2">
+        <v>360</v>
+      </c>
+      <c r="AG47" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH47" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AI47" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="AJ47" t="s" s="2">
+        <v>139</v>
+      </c>
+      <c r="AK47" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="AL47" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="AM47" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="AN47" t="s" s="2">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="48" hidden="true">
+      <c r="A48" t="s" s="2">
+        <v>361</v>
+      </c>
+      <c r="B48" t="s" s="2">
+        <v>361</v>
+      </c>
+      <c r="C48" s="2"/>
+      <c r="D48" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="E48" s="2"/>
+      <c r="F48" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G48" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="H48" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="I48" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="J48" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="K48" t="s" s="2">
+        <v>187</v>
+      </c>
+      <c r="L48" t="s" s="2">
+        <v>362</v>
+      </c>
+      <c r="M48" t="s" s="2">
+        <v>363</v>
+      </c>
+      <c r="N48" s="2"/>
+      <c r="O48" t="s" s="2">
+        <v>364</v>
+      </c>
+      <c r="P48" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="Q48" s="2"/>
+      <c r="R48" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="S48" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="T48" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="U48" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="V48" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="W48" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="X48" t="s" s="2">
+        <v>192</v>
+      </c>
+      <c r="Y48" t="s" s="2">
+        <v>365</v>
+      </c>
+      <c r="Z48" t="s" s="2">
+        <v>366</v>
+      </c>
+      <c r="AA48" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="AB48" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="AC48" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="AD48" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="AE48" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="AF48" t="s" s="2">
+        <v>361</v>
+      </c>
+      <c r="AG48" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH48" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AI48" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="AJ48" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AK48" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="AL48" t="s" s="2">
+        <v>367</v>
+      </c>
+      <c r="AM48" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="AN48" t="s" s="2">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="49" hidden="true">
+      <c r="A49" t="s" s="2">
+        <v>368</v>
+      </c>
+      <c r="B49" t="s" s="2">
+        <v>368</v>
+      </c>
+      <c r="C49" s="2"/>
+      <c r="D49" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="E49" s="2"/>
+      <c r="F49" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G49" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="H49" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="I49" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="J49" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="K49" t="s" s="2">
+        <v>369</v>
+      </c>
+      <c r="L49" t="s" s="2">
+        <v>370</v>
+      </c>
+      <c r="M49" t="s" s="2">
+        <v>370</v>
+      </c>
+      <c r="N49" s="2"/>
+      <c r="O49" t="s" s="2">
+        <v>371</v>
+      </c>
+      <c r="P49" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="Q49" s="2"/>
+      <c r="R49" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="S49" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="T49" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="U49" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="V49" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="W49" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="X49" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="Y49" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="Z49" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="AA49" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="AB49" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="AC49" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="AD49" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="AE49" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="AF49" t="s" s="2">
+        <v>368</v>
+      </c>
+      <c r="AG49" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH49" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AI49" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="AJ49" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AK49" t="s" s="2">
+        <v>372</v>
+      </c>
+      <c r="AL49" t="s" s="2">
+        <v>373</v>
+      </c>
+      <c r="AM49" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="AN49" t="s" s="2">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="50" hidden="true">
+      <c r="A50" t="s" s="2">
+        <v>374</v>
+      </c>
+      <c r="B50" t="s" s="2">
+        <v>374</v>
+      </c>
+      <c r="C50" s="2"/>
+      <c r="D50" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="E50" s="2"/>
+      <c r="F50" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G50" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="H50" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="I50" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="J50" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="K50" t="s" s="2">
+        <v>283</v>
+      </c>
+      <c r="L50" t="s" s="2">
+        <v>375</v>
+      </c>
+      <c r="M50" t="s" s="2">
+        <v>376</v>
+      </c>
+      <c r="N50" s="2"/>
+      <c r="O50" t="s" s="2">
+        <v>377</v>
+      </c>
+      <c r="P50" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="Q50" s="2"/>
+      <c r="R50" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="S50" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="T50" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="U50" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="V50" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="W50" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="X50" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="Y50" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="Z50" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="AA50" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="AB50" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="AC50" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="AD50" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="AE50" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="AF50" t="s" s="2">
+        <v>374</v>
+      </c>
+      <c r="AG50" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH50" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AI50" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="AJ50" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AK50" t="s" s="2">
+        <v>378</v>
+      </c>
+      <c r="AL50" t="s" s="2">
+        <v>379</v>
+      </c>
+      <c r="AM50" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="AN50" t="s" s="2">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="51" hidden="true">
+      <c r="A51" t="s" s="2">
+        <v>380</v>
+      </c>
+      <c r="B51" t="s" s="2">
+        <v>380</v>
+      </c>
+      <c r="C51" s="2"/>
+      <c r="D51" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="E51" s="2"/>
+      <c r="F51" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G51" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="H51" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="I51" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="J51" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="K51" t="s" s="2">
+        <v>166</v>
+      </c>
+      <c r="L51" t="s" s="2">
+        <v>167</v>
+      </c>
+      <c r="M51" t="s" s="2">
+        <v>168</v>
+      </c>
+      <c r="N51" s="2"/>
+      <c r="O51" s="2"/>
+      <c r="P51" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="Q51" s="2"/>
+      <c r="R51" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="S51" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="T51" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="U51" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="V51" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="W51" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="X51" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="Y51" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="Z51" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="AA51" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="AB51" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="AC51" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="AD51" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="AE51" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="AF51" t="s" s="2">
+        <v>169</v>
+      </c>
+      <c r="AG51" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH51" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AI51" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="AJ51" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="AK51" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="AL51" t="s" s="2">
+        <v>170</v>
+      </c>
+      <c r="AM51" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="AN51" t="s" s="2">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="52" hidden="true">
+      <c r="A52" t="s" s="2">
+        <v>381</v>
+      </c>
+      <c r="B52" t="s" s="2">
+        <v>381</v>
+      </c>
+      <c r="C52" s="2"/>
+      <c r="D52" t="s" s="2">
+        <v>147</v>
+      </c>
+      <c r="E52" s="2"/>
+      <c r="F52" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G52" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="H52" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="I52" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="J52" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="K52" t="s" s="2">
+        <v>133</v>
+      </c>
+      <c r="L52" t="s" s="2">
+        <v>172</v>
+      </c>
+      <c r="M52" t="s" s="2">
+        <v>173</v>
+      </c>
+      <c r="N52" t="s" s="2">
+        <v>150</v>
+      </c>
+      <c r="O52" s="2"/>
+      <c r="P52" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="Q52" s="2"/>
+      <c r="R52" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="S52" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="T52" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="U52" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="V52" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="W52" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="X52" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="Y52" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="Z52" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="AA52" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="AB52" t="s" s="2">
+        <v>136</v>
+      </c>
+      <c r="AC52" t="s" s="2">
+        <v>174</v>
+      </c>
+      <c r="AD52" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="AE52" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="AF52" t="s" s="2">
+        <v>175</v>
+      </c>
+      <c r="AG52" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH52" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AI52" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="AJ52" t="s" s="2">
+        <v>139</v>
+      </c>
+      <c r="AK52" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="AL52" t="s" s="2">
+        <v>170</v>
+      </c>
+      <c r="AM52" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="AN52" t="s" s="2">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="53" hidden="true">
+      <c r="A53" t="s" s="2">
+        <v>382</v>
+      </c>
+      <c r="B53" t="s" s="2">
+        <v>382</v>
+      </c>
+      <c r="C53" s="2"/>
+      <c r="D53" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="E53" s="2"/>
+      <c r="F53" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G53" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="H53" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="I53" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="J53" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="K53" t="s" s="2">
+        <v>108</v>
+      </c>
+      <c r="L53" t="s" s="2">
+        <v>295</v>
+      </c>
+      <c r="M53" t="s" s="2">
+        <v>296</v>
+      </c>
+      <c r="N53" s="2"/>
+      <c r="O53" s="2"/>
+      <c r="P53" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="Q53" s="2"/>
+      <c r="R53" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="S53" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="T53" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="U53" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="V53" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="W53" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="X53" t="s" s="2">
+        <v>181</v>
+      </c>
+      <c r="Y53" s="2"/>
+      <c r="Z53" t="s" s="2">
+        <v>298</v>
+      </c>
+      <c r="AA53" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="AB53" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="AC53" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="AD53" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="AE53" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="AF53" t="s" s="2">
+        <v>299</v>
+      </c>
+      <c r="AG53" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH53" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AI53" t="s" s="2">
+        <v>300</v>
+      </c>
+      <c r="AJ53" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AK53" t="s" s="2">
+        <v>301</v>
+      </c>
+      <c r="AL53" t="s" s="2">
+        <v>302</v>
+      </c>
+      <c r="AM53" t="s" s="2">
+        <v>303</v>
+      </c>
+      <c r="AN53" t="s" s="2">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="54" hidden="true">
+      <c r="A54" t="s" s="2">
+        <v>383</v>
+      </c>
+      <c r="B54" t="s" s="2">
+        <v>383</v>
+      </c>
+      <c r="C54" s="2"/>
+      <c r="D54" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="E54" s="2"/>
+      <c r="F54" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G54" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="H54" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="I54" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="J54" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="K54" t="s" s="2">
+        <v>166</v>
+      </c>
+      <c r="L54" t="s" s="2">
+        <v>384</v>
+      </c>
+      <c r="M54" t="s" s="2">
+        <v>385</v>
+      </c>
+      <c r="N54" t="s" s="2">
+        <v>307</v>
+      </c>
+      <c r="O54" t="s" s="2">
+        <v>308</v>
+      </c>
+      <c r="P54" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="Q54" s="2"/>
+      <c r="R54" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="S54" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="T54" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="U54" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="V54" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="W54" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="X54" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="Y54" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="Z54" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="AA54" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="AB54" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="AC54" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="AD54" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="AE54" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="AF54" t="s" s="2">
+        <v>309</v>
+      </c>
+      <c r="AG54" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH54" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AI54" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="AJ54" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AK54" t="s" s="2">
+        <v>310</v>
+      </c>
+      <c r="AL54" t="s" s="2">
+        <v>311</v>
+      </c>
+      <c r="AM54" t="s" s="2">
+        <v>215</v>
+      </c>
+      <c r="AN54" t="s" s="2">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="55" hidden="true">
+      <c r="A55" t="s" s="2">
+        <v>386</v>
+      </c>
+      <c r="B55" t="s" s="2">
+        <v>386</v>
+      </c>
+      <c r="C55" s="2"/>
+      <c r="D55" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="E55" s="2"/>
+      <c r="F55" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G55" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="H55" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="I55" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="J55" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="K55" t="s" s="2">
+        <v>108</v>
+      </c>
+      <c r="L55" t="s" s="2">
+        <v>387</v>
+      </c>
+      <c r="M55" t="s" s="2">
+        <v>388</v>
+      </c>
+      <c r="N55" t="s" s="2">
+        <v>315</v>
+      </c>
+      <c r="O55" t="s" s="2">
+        <v>316</v>
+      </c>
+      <c r="P55" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="Q55" s="2"/>
+      <c r="R55" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="S55" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="T55" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="U55" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="V55" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="W55" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="X55" t="s" s="2">
+        <v>181</v>
+      </c>
+      <c r="Y55" s="2"/>
+      <c r="Z55" t="s" s="2">
+        <v>317</v>
+      </c>
+      <c r="AA55" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="AB55" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="AC55" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="AD55" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="AE55" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="AF55" t="s" s="2">
+        <v>318</v>
+      </c>
+      <c r="AG55" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH55" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AI55" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="AJ55" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AK55" t="s" s="2">
+        <v>319</v>
+      </c>
+      <c r="AL55" t="s" s="2">
+        <v>320</v>
+      </c>
+      <c r="AM55" t="s" s="2">
+        <v>321</v>
+      </c>
+      <c r="AN55" t="s" s="2">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="56" hidden="true">
+      <c r="A56" t="s" s="2">
+        <v>389</v>
+      </c>
+      <c r="B56" t="s" s="2">
+        <v>389</v>
+      </c>
+      <c r="C56" s="2"/>
+      <c r="D56" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="E56" s="2"/>
+      <c r="F56" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G56" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="H56" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="I56" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="J56" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="K56" t="s" s="2">
+        <v>323</v>
+      </c>
+      <c r="L56" t="s" s="2">
+        <v>324</v>
+      </c>
+      <c r="M56" t="s" s="2">
+        <v>325</v>
+      </c>
+      <c r="N56" t="s" s="2">
+        <v>326</v>
+      </c>
+      <c r="O56" s="2"/>
+      <c r="P56" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="Q56" s="2"/>
+      <c r="R56" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="S56" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="T56" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="U56" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="V56" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="W56" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="X56" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="Y56" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="Z56" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="AA56" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="AB56" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="AC56" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="AD56" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="AE56" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="AF56" t="s" s="2">
+        <v>327</v>
+      </c>
+      <c r="AG56" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH56" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AI56" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="AJ56" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AK56" t="s" s="2">
+        <v>170</v>
+      </c>
+      <c r="AL56" t="s" s="2">
+        <v>170</v>
+      </c>
+      <c r="AM56" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="AN56" t="s" s="2">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="57" hidden="true">
+      <c r="A57" t="s" s="2">
+        <v>390</v>
+      </c>
+      <c r="B57" t="s" s="2">
+        <v>390</v>
+      </c>
+      <c r="C57" s="2"/>
+      <c r="D57" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="E57" s="2"/>
+      <c r="F57" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G57" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="H57" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="I57" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="J57" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="K57" t="s" s="2">
+        <v>217</v>
+      </c>
+      <c r="L57" t="s" s="2">
+        <v>329</v>
+      </c>
+      <c r="M57" t="s" s="2">
+        <v>330</v>
+      </c>
+      <c r="N57" s="2"/>
+      <c r="O57" s="2"/>
+      <c r="P57" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="Q57" s="2"/>
+      <c r="R57" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="S57" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="T57" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="U57" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="V57" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="W57" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="X57" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="Y57" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="Z57" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="AA57" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="AB57" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="AC57" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="AD57" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="AE57" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="AF57" t="s" s="2">
+        <v>331</v>
+      </c>
+      <c r="AG57" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH57" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AI57" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="AJ57" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AK57" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="AL57" t="s" s="2">
+        <v>332</v>
+      </c>
+      <c r="AM57" t="s" s="2">
+        <v>223</v>
+      </c>
+      <c r="AN57" t="s" s="2">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="58" hidden="true">
+      <c r="A58" t="s" s="2">
+        <v>391</v>
+      </c>
+      <c r="B58" t="s" s="2">
+        <v>391</v>
+      </c>
+      <c r="C58" s="2"/>
+      <c r="D58" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="E58" s="2"/>
+      <c r="F58" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G58" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="H58" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="I58" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="J58" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="K58" t="s" s="2">
+        <v>392</v>
+      </c>
+      <c r="L58" t="s" s="2">
+        <v>393</v>
+      </c>
+      <c r="M58" t="s" s="2">
+        <v>394</v>
+      </c>
+      <c r="N58" s="2"/>
+      <c r="O58" t="s" s="2">
+        <v>395</v>
+      </c>
+      <c r="P58" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="Q58" s="2"/>
+      <c r="R58" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="S58" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="T58" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="U58" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="V58" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="W58" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="X58" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="Y58" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="Z58" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="AA58" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="AB58" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="AC58" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="AD58" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="AE58" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="AF58" t="s" s="2">
+        <v>391</v>
+      </c>
+      <c r="AG58" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH58" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AI58" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="AJ58" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AK58" t="s" s="2">
+        <v>396</v>
+      </c>
+      <c r="AL58" t="s" s="2">
+        <v>397</v>
+      </c>
+      <c r="AM58" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="AN58" t="s" s="2">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="59" hidden="true">
+      <c r="A59" t="s" s="2">
+        <v>398</v>
+      </c>
+      <c r="B59" t="s" s="2">
+        <v>398</v>
+      </c>
+      <c r="C59" s="2"/>
+      <c r="D59" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="E59" s="2"/>
+      <c r="F59" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G59" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="H59" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="I59" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="J59" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="K59" t="s" s="2">
+        <v>399</v>
+      </c>
+      <c r="L59" t="s" s="2">
+        <v>400</v>
+      </c>
+      <c r="M59" t="s" s="2">
+        <v>401</v>
+      </c>
+      <c r="N59" s="2"/>
+      <c r="O59" t="s" s="2">
+        <v>402</v>
+      </c>
+      <c r="P59" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="Q59" s="2"/>
+      <c r="R59" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="S59" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="T59" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="U59" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="V59" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="W59" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="X59" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="Y59" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="Z59" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="AA59" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="AB59" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="AC59" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="AD59" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="AE59" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="AF59" t="s" s="2">
+        <v>398</v>
+      </c>
+      <c r="AG59" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH59" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AI59" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="AJ59" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AK59" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="AL59" t="s" s="2">
+        <v>170</v>
+      </c>
+      <c r="AM59" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="AN59" t="s" s="2">
         <v>22</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AN37">
+  <autoFilter ref="A1:AN59">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -5752,7 +8404,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI36">
+  <conditionalFormatting sqref="A2:AI58">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>
